--- a/pre_pmagy_obj3_hn.xlsx
+++ b/pre_pmagy_obj3_hn.xlsx
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -485,16 +485,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -601,13 +601,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -630,13 +630,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -659,10 +659,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -688,13 +688,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -749,13 +749,13 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -804,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -833,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -862,16 +862,16 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -891,16 +891,16 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -920,13 +920,13 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -949,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -978,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1007,16 +1007,16 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1036,10 +1036,10 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1068,13 +1068,13 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1097,13 +1097,13 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1123,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1181,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1210,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1297,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1361,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1384,16 +1384,16 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1413,13 +1413,13 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1442,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>5</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1474,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1503,13 +1503,13 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1529,16 +1529,16 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -1558,16 +1558,16 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1587,16 +1587,16 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1619,13 +1619,13 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1645,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1674,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1703,13 +1703,13 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1761,16 +1761,16 @@
         <v>4</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -1790,13 +1790,13 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -1819,16 +1819,16 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -1851,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -1877,13 +1877,13 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1906,13 +1906,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -1935,16 +1935,16 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -1964,13 +1964,13 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1993,13 +1993,13 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2028,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -2051,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -2080,13 +2080,13 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2109,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -2138,16 +2138,16 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2167,13 +2167,13 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -2196,16 +2196,16 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>4</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -2225,13 +2225,13 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2254,16 +2254,16 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2283,10 +2283,10 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2312,16 +2312,16 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2347,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -2370,16 +2370,16 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -2399,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2428,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2457,16 +2457,16 @@
         <v>3</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -2489,10 +2489,10 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2515,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>4</v>
@@ -2544,16 +2544,16 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2576,13 +2576,13 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2602,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -2631,10 +2631,10 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2663,13 +2663,13 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -2689,16 +2689,16 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -2718,16 +2718,16 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>4</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -2750,13 +2750,13 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2779,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -2808,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2834,16 +2834,16 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -2863,16 +2863,16 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -2892,16 +2892,16 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -2921,13 +2921,13 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -2979,16 +2979,16 @@
         <v>5</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -3008,13 +3008,13 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -3037,16 +3037,16 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3066,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -3124,16 +3124,16 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -3153,16 +3153,16 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3185,10 +3185,10 @@
         <v>2</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -3240,16 +3240,16 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>4</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -3272,10 +3272,10 @@
         <v>4</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -3327,16 +3327,16 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -3356,16 +3356,16 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -3385,16 +3385,16 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -3414,16 +3414,16 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -3443,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -3481,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -3504,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -3530,13 +3530,13 @@
         <v>5</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -3559,16 +3559,16 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -3588,16 +3588,16 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -3620,13 +3620,13 @@
         <v>2</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -3646,16 +3646,16 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -3675,16 +3675,16 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -3704,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -3733,13 +3733,13 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -3768,10 +3768,10 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -3791,16 +3791,16 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -3823,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -3852,13 +3852,13 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -3884,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -3907,16 +3907,16 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -3939,13 +3939,13 @@
         <v>3</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -3965,16 +3965,16 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -3994,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -4023,16 +4023,16 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>5</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>4</v>
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -4081,10 +4081,10 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -4110,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -4139,13 +4139,13 @@
         <v>4</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>4</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -4168,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -4197,16 +4197,16 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -4226,16 +4226,16 @@
         <v>5</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -4255,13 +4255,13 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -4284,16 +4284,16 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -4313,16 +4313,16 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -4342,16 +4342,16 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -4371,16 +4371,16 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -4400,16 +4400,16 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -4438,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -4461,10 +4461,10 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4490,13 +4490,13 @@
         <v>2</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E142">
         <v>5</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -4522,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -4545,16 +4545,16 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -4574,16 +4574,16 @@
         <v>2</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -4603,16 +4603,16 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -4632,16 +4632,16 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -4661,13 +4661,13 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148">
         <v>4</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -4690,16 +4690,16 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -4719,16 +4719,16 @@
         <v>2</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
         <v>5</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -4748,13 +4748,13 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -4777,13 +4777,13 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -4806,13 +4806,13 @@
         <v>5</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -4838,10 +4838,10 @@
         <v>3</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -4864,16 +4864,16 @@
         <v>5</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -4893,16 +4893,16 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -4922,16 +4922,16 @@
         <v>2</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -4954,13 +4954,13 @@
         <v>2</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -4980,16 +4980,16 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -5009,10 +5009,10 @@
         <v>2</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -5038,16 +5038,16 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
       <c r="E161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -5067,16 +5067,16 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -5096,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -5125,16 +5125,16 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -5154,16 +5154,16 @@
         <v>4</v>
       </c>
       <c r="C165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -5183,13 +5183,13 @@
         <v>3</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -5212,16 +5212,16 @@
         <v>3</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -5244,13 +5244,13 @@
         <v>3</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -5270,16 +5270,16 @@
         <v>2</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -5299,13 +5299,13 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -5328,16 +5328,16 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171">
         <v>4</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -5357,16 +5357,16 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -5386,13 +5386,13 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -5418,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -5444,16 +5444,16 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175">
         <v>2</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175">
         <v>3</v>
@@ -5473,10 +5473,10 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5502,13 +5502,13 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -5531,16 +5531,16 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -5560,16 +5560,16 @@
         <v>2</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -5589,16 +5589,16 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -5618,16 +5618,16 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -5647,16 +5647,16 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -5676,16 +5676,16 @@
         <v>2</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
         <v>2</v>
@@ -5705,16 +5705,16 @@
         <v>2</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184">
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -5734,16 +5734,16 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185">
         <v>2</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -5766,13 +5766,13 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -5792,16 +5792,16 @@
         <v>2</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
         <v>4</v>
@@ -5821,16 +5821,16 @@
         <v>2</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -5879,16 +5879,16 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -5908,16 +5908,16 @@
         <v>2</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
       <c r="E191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -5975,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -6024,13 +6024,13 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -6056,13 +6056,13 @@
         <v>5</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -6082,13 +6082,13 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -6111,16 +6111,16 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E198">
         <v>5</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -6140,10 +6140,10 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -6169,16 +6169,16 @@
         <v>2</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>4</v>
@@ -6198,16 +6198,16 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -6227,16 +6227,16 @@
         <v>2</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H202">
         <v>2</v>
@@ -6256,13 +6256,13 @@
         <v>2</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>4</v>
@@ -6285,10 +6285,10 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -6314,16 +6314,16 @@
         <v>2</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E205">
         <v>2</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -6352,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -6372,16 +6372,16 @@
         <v>5</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -6401,16 +6401,16 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E208">
         <v>4</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H208">
         <v>4</v>
@@ -6430,16 +6430,16 @@
         <v>5</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209">
         <v>2</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -6459,13 +6459,13 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -6488,16 +6488,16 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -6517,16 +6517,16 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -6546,16 +6546,16 @@
         <v>5</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -6575,16 +6575,16 @@
         <v>2</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H214">
         <v>3</v>
@@ -6604,10 +6604,10 @@
         <v>5</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <v>5</v>
@@ -6633,16 +6633,16 @@
         <v>3</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -6665,13 +6665,13 @@
         <v>2</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>2</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -6691,16 +6691,16 @@
         <v>2</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -6720,16 +6720,16 @@
         <v>3</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>4</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G219">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -6749,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -6778,16 +6778,16 @@
         <v>2</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -6807,16 +6807,16 @@
         <v>3</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -6836,16 +6836,16 @@
         <v>2</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -6868,13 +6868,13 @@
         <v>3</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -6894,13 +6894,13 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D225">
         <v>3</v>
       </c>
       <c r="E225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G225">
         <v>4</v>
@@ -6923,13 +6923,13 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -6952,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -6984,13 +6984,13 @@
         <v>2</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -7010,16 +7010,16 @@
         <v>3</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -7039,16 +7039,16 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -7068,16 +7068,16 @@
         <v>2</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -7103,7 +7103,7 @@
         <v>4</v>
       </c>
       <c r="E232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <v>4</v>
@@ -7126,13 +7126,13 @@
         <v>3</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -7155,13 +7155,13 @@
         <v>3</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -7184,7 +7184,7 @@
         <v>4</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235">
         <v>4</v>
@@ -7193,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="G235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -7213,16 +7213,16 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -7242,16 +7242,16 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>5</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>4</v>
@@ -7271,16 +7271,16 @@
         <v>3</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -7300,16 +7300,16 @@
         <v>2</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>5</v>
       </c>
       <c r="G239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D240">
         <v>2</v>
       </c>
       <c r="E240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -7358,16 +7358,16 @@
         <v>5</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -7387,13 +7387,13 @@
         <v>2</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G242">
         <v>4</v>
@@ -7416,10 +7416,10 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <v>5</v>
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -7454,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="G244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -7474,16 +7474,16 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -7503,10 +7503,10 @@
         <v>2</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247">
         <v>2</v>
@@ -7541,7 +7541,7 @@
         <v>2</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -7561,16 +7561,16 @@
         <v>3</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -7590,13 +7590,13 @@
         <v>3</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -7619,13 +7619,13 @@
         <v>3</v>
       </c>
       <c r="C250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -7651,10 +7651,10 @@
         <v>3</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -7677,16 +7677,16 @@
         <v>3</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D252">
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H252">
         <v>3</v>
@@ -7709,7 +7709,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E253">
         <v>2</v>
@@ -7735,16 +7735,16 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H254">
         <v>4</v>
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D255">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>2</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -7793,16 +7793,16 @@
         <v>4</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -7825,10 +7825,10 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -7854,13 +7854,13 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E258">
         <v>2</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -7880,13 +7880,13 @@
         <v>2</v>
       </c>
       <c r="C259">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G259">
         <v>2</v>
@@ -7909,16 +7909,16 @@
         <v>3</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E260">
         <v>5</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -7947,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -7967,16 +7967,16 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -7996,16 +7996,16 @@
         <v>3</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -8028,10 +8028,10 @@
         <v>3</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -8054,16 +8054,16 @@
         <v>5</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -8083,16 +8083,16 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D266">
         <v>2</v>
       </c>
       <c r="E266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G266">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -8112,16 +8112,16 @@
         <v>3</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D267">
         <v>4</v>
       </c>
       <c r="E267">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -8141,16 +8141,16 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E268">
         <v>2</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -8176,7 +8176,7 @@
         <v>4</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -8199,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -8228,13 +8228,13 @@
         <v>4</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G271">
         <v>2</v>
@@ -8257,16 +8257,16 @@
         <v>3</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -8286,16 +8286,16 @@
         <v>3</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273">
         <v>2</v>
       </c>
       <c r="E273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H273">
         <v>2</v>
@@ -8315,16 +8315,16 @@
         <v>5</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
         <v>4</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -8344,13 +8344,13 @@
         <v>3</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G275">
         <v>4</v>
@@ -8373,13 +8373,13 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E276">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G276">
         <v>4</v>
@@ -8405,7 +8405,7 @@
         <v>3</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -8431,13 +8431,13 @@
         <v>2</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D278">
         <v>3</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -8460,13 +8460,13 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -8489,16 +8489,16 @@
         <v>2</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -8518,13 +8518,13 @@
         <v>4</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>2</v>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G281">
         <v>2</v>
@@ -8547,13 +8547,13 @@
         <v>2</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -8576,16 +8576,16 @@
         <v>3</v>
       </c>
       <c r="C283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D283">
         <v>3</v>
       </c>
       <c r="E283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -8608,13 +8608,13 @@
         <v>2</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E284">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H284">
         <v>2</v>
@@ -8634,16 +8634,16 @@
         <v>3</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E285">
         <v>4</v>
       </c>
       <c r="G285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -8663,13 +8663,13 @@
         <v>3</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D286">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G286">
         <v>2</v>
@@ -8692,16 +8692,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E287">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -8721,16 +8721,16 @@
         <v>2</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E288">
         <v>5</v>
       </c>
       <c r="G288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -8750,16 +8750,16 @@
         <v>1</v>
       </c>
       <c r="C289">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -8782,13 +8782,13 @@
         <v>2</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E290">
         <v>4</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -8811,10 +8811,10 @@
         <v>2</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G291">
         <v>2</v>
@@ -8837,16 +8837,16 @@
         <v>3</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E292">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H292">
         <v>3</v>
@@ -8869,13 +8869,13 @@
         <v>2</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E293">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -8895,16 +8895,16 @@
         <v>3</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
         <v>3</v>
       </c>
       <c r="E294">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G294">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H294">
         <v>2</v>
@@ -8924,7 +8924,7 @@
         <v>3</v>
       </c>
       <c r="C295">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -8953,16 +8953,16 @@
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E296">
         <v>4</v>
       </c>
       <c r="G296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -8982,16 +8982,16 @@
         <v>2</v>
       </c>
       <c r="C297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -9011,16 +9011,16 @@
         <v>2</v>
       </c>
       <c r="C298">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D298">
         <v>3</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -9043,13 +9043,13 @@
         <v>3</v>
       </c>
       <c r="D299">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -9069,16 +9069,16 @@
         <v>2</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D300">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -9098,16 +9098,16 @@
         <v>5</v>
       </c>
       <c r="C301">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E301">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -9127,16 +9127,16 @@
         <v>2</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E302">
         <v>2</v>
       </c>
       <c r="G302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H302">
         <v>2</v>
@@ -9156,13 +9156,13 @@
         <v>2</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D303">
         <v>3</v>
       </c>
       <c r="E303">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -9185,16 +9185,16 @@
         <v>1</v>
       </c>
       <c r="C304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E304">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -9214,16 +9214,16 @@
         <v>2</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E305">
         <v>5</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305">
         <v>2</v>
@@ -9243,16 +9243,16 @@
         <v>3</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D306">
         <v>4</v>
       </c>
       <c r="E306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H306">
         <v>4</v>
@@ -9272,16 +9272,16 @@
         <v>2</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307">
         <v>2</v>
       </c>
       <c r="E307">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -9301,13 +9301,13 @@
         <v>3</v>
       </c>
       <c r="C308">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E308">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G308">
         <v>4</v>
@@ -9330,13 +9330,13 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E309">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G309">
         <v>2</v>
@@ -9362,13 +9362,13 @@
         <v>3</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H310">
         <v>2</v>
@@ -9388,16 +9388,16 @@
         <v>4</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311">
         <v>4</v>
@@ -9417,16 +9417,16 @@
         <v>3</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E312">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -9449,13 +9449,13 @@
         <v>2</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -9475,16 +9475,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -9504,16 +9504,16 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -9533,7 +9533,7 @@
         <v>4</v>
       </c>
       <c r="C316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D316">
         <v>2</v>
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="G316">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -9571,7 +9571,7 @@
         <v>5</v>
       </c>
       <c r="G317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -9597,10 +9597,10 @@
         <v>2</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318">
         <v>2</v>
@@ -9620,16 +9620,16 @@
         <v>2</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E319">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319">
         <v>2</v>
@@ -9649,13 +9649,13 @@
         <v>2</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G320">
         <v>2</v>
@@ -9681,10 +9681,10 @@
         <v>2</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E321">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G321">
         <v>4</v>
@@ -9707,16 +9707,16 @@
         <v>2</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G322">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H322">
         <v>1</v>
@@ -9736,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323">
         <v>3</v>
@@ -9745,7 +9745,7 @@
         <v>4</v>
       </c>
       <c r="G323">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -9765,16 +9765,16 @@
         <v>4</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -9794,16 +9794,16 @@
         <v>2</v>
       </c>
       <c r="C325">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G325">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -9829,7 +9829,7 @@
         <v>4</v>
       </c>
       <c r="E326">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G326">
         <v>2</v>
@@ -9852,10 +9852,10 @@
         <v>4</v>
       </c>
       <c r="C327">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -9881,13 +9881,13 @@
         <v>1</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D328">
         <v>2</v>
       </c>
       <c r="E328">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G328">
         <v>2</v>
@@ -9910,16 +9910,16 @@
         <v>4</v>
       </c>
       <c r="C329">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H329">
         <v>1</v>
@@ -9942,10 +9942,10 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G330">
         <v>4</v>
@@ -9971,7 +9971,7 @@
         <v>3</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E331">
         <v>4</v>
@@ -9997,16 +9997,16 @@
         <v>5</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332">
         <v>1</v>
@@ -10026,16 +10026,16 @@
         <v>2</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333">
         <v>2</v>
@@ -10055,16 +10055,16 @@
         <v>3</v>
       </c>
       <c r="C334">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E334">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H334">
         <v>1</v>
@@ -10090,10 +10090,10 @@
         <v>4</v>
       </c>
       <c r="E335">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G335">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H335">
         <v>2</v>
@@ -10113,16 +10113,16 @@
         <v>3</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E336">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336">
         <v>1</v>
@@ -10142,13 +10142,13 @@
         <v>2</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D337">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E337">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G337">
         <v>2</v>
@@ -10171,16 +10171,16 @@
         <v>2</v>
       </c>
       <c r="C338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E338">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H338">
         <v>2</v>
@@ -10200,16 +10200,16 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E339">
         <v>4</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -10235,10 +10235,10 @@
         <v>3</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -10258,16 +10258,16 @@
         <v>4</v>
       </c>
       <c r="C341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341">
         <v>1</v>
@@ -10287,13 +10287,13 @@
         <v>3</v>
       </c>
       <c r="C342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D342">
         <v>2</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G342">
         <v>2</v>
@@ -10316,10 +10316,10 @@
         <v>4</v>
       </c>
       <c r="C343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D343">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E343">
         <v>4</v>
@@ -10345,16 +10345,16 @@
         <v>1</v>
       </c>
       <c r="C344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G344">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>1</v>
@@ -10374,13 +10374,13 @@
         <v>3</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G345">
         <v>2</v>
@@ -10403,13 +10403,13 @@
         <v>2</v>
       </c>
       <c r="C346">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G346">
         <v>1</v>
@@ -10432,13 +10432,13 @@
         <v>4</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G347">
         <v>2</v>
@@ -10461,13 +10461,13 @@
         <v>4</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E348">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -10490,13 +10490,13 @@
         <v>1</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -10519,16 +10519,16 @@
         <v>3</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -10548,16 +10548,16 @@
         <v>3</v>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E351">
         <v>2</v>
       </c>
       <c r="G351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351">
         <v>1</v>
@@ -10577,16 +10577,16 @@
         <v>4</v>
       </c>
       <c r="C352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D352">
         <v>4</v>
       </c>
       <c r="E352">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H352">
         <v>2</v>
@@ -10609,13 +10609,13 @@
         <v>2</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E353">
         <v>5</v>
       </c>
       <c r="G353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353">
         <v>4</v>
@@ -10638,10 +10638,10 @@
         <v>2</v>
       </c>
       <c r="D354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G354">
         <v>2</v>
@@ -10664,13 +10664,13 @@
         <v>2</v>
       </c>
       <c r="C355">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D355">
         <v>2</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G355">
         <v>4</v>
@@ -10693,16 +10693,16 @@
         <v>2</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -10722,7 +10722,7 @@
         <v>2</v>
       </c>
       <c r="C357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D357">
         <v>4</v>
@@ -10731,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="G357">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H357">
         <v>2</v>
@@ -10754,13 +10754,13 @@
         <v>4</v>
       </c>
       <c r="D358">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G358">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H358">
         <v>3</v>
@@ -10780,16 +10780,16 @@
         <v>4</v>
       </c>
       <c r="C359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E359">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G359">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H359">
         <v>3</v>
@@ -10809,16 +10809,16 @@
         <v>5</v>
       </c>
       <c r="C360">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D360">
         <v>3</v>
       </c>
       <c r="E360">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H360">
         <v>3</v>
@@ -10838,16 +10838,16 @@
         <v>3</v>
       </c>
       <c r="C361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D361">
         <v>4</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H361">
         <v>1</v>
@@ -10867,16 +10867,16 @@
         <v>5</v>
       </c>
       <c r="C362">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E362">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H362">
         <v>2</v>
@@ -10896,13 +10896,13 @@
         <v>4</v>
       </c>
       <c r="C363">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E363">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G363">
         <v>2</v>
@@ -10925,16 +10925,16 @@
         <v>3</v>
       </c>
       <c r="C364">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D364">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E364">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -10954,16 +10954,16 @@
         <v>4</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E365">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G365">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H365">
         <v>3</v>
@@ -10983,13 +10983,13 @@
         <v>2</v>
       </c>
       <c r="C366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D366">
         <v>2</v>
       </c>
       <c r="E366">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G366">
         <v>2</v>
@@ -11015,10 +11015,10 @@
         <v>3</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G367">
         <v>2</v>
@@ -11041,16 +11041,16 @@
         <v>4</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G368">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -11070,13 +11070,13 @@
         <v>5</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E369">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G369">
         <v>2</v>
@@ -11102,7 +11102,7 @@
         <v>4</v>
       </c>
       <c r="D370">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E370">
         <v>5</v>
@@ -11128,13 +11128,13 @@
         <v>4</v>
       </c>
       <c r="C371">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E371">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G371">
         <v>2</v>
@@ -11157,13 +11157,13 @@
         <v>1</v>
       </c>
       <c r="C372">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G372">
         <v>2</v>
@@ -11186,16 +11186,16 @@
         <v>1</v>
       </c>
       <c r="C373">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D373">
         <v>3</v>
       </c>
       <c r="E373">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373">
         <v>4</v>
@@ -11215,13 +11215,13 @@
         <v>3</v>
       </c>
       <c r="C374">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D374">
         <v>2</v>
       </c>
       <c r="E374">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G374">
         <v>1</v>
@@ -11244,16 +11244,16 @@
         <v>2</v>
       </c>
       <c r="C375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E375">
         <v>2</v>
       </c>
       <c r="G375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -11276,13 +11276,13 @@
         <v>3</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H376">
         <v>4</v>
@@ -11302,16 +11302,16 @@
         <v>3</v>
       </c>
       <c r="C377">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H377">
         <v>4</v>
@@ -11334,10 +11334,10 @@
         <v>4</v>
       </c>
       <c r="D378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G378">
         <v>4</v>
@@ -11360,7 +11360,7 @@
         <v>3</v>
       </c>
       <c r="C379">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D379">
         <v>4</v>
@@ -11369,7 +11369,7 @@
         <v>5</v>
       </c>
       <c r="G379">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H379">
         <v>4</v>
@@ -11389,7 +11389,7 @@
         <v>4</v>
       </c>
       <c r="C380">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D380">
         <v>3</v>
@@ -11398,7 +11398,7 @@
         <v>4</v>
       </c>
       <c r="G380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380">
         <v>1</v>
@@ -11421,10 +11421,10 @@
         <v>2</v>
       </c>
       <c r="D381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G381">
         <v>2</v>
@@ -11447,16 +11447,16 @@
         <v>2</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D382">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G382">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H382">
         <v>3</v>
@@ -11479,10 +11479,10 @@
         <v>1</v>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G383">
         <v>2</v>
@@ -11505,16 +11505,16 @@
         <v>4</v>
       </c>
       <c r="C384">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D384">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E384">
         <v>2</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H384">
         <v>3</v>
@@ -11534,16 +11534,16 @@
         <v>5</v>
       </c>
       <c r="C385">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385">
         <v>1</v>
@@ -11569,10 +11569,10 @@
         <v>3</v>
       </c>
       <c r="E386">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H386">
         <v>2</v>
@@ -11592,7 +11592,7 @@
         <v>3</v>
       </c>
       <c r="C387">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D387">
         <v>4</v>
@@ -11624,13 +11624,13 @@
         <v>2</v>
       </c>
       <c r="D388">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E388">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G388">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H388">
         <v>3</v>
@@ -11656,7 +11656,7 @@
         <v>3</v>
       </c>
       <c r="E389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -11679,13 +11679,13 @@
         <v>3</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D390">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G390">
         <v>4</v>
@@ -11708,13 +11708,13 @@
         <v>4</v>
       </c>
       <c r="C391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G391">
         <v>2</v>
@@ -11737,16 +11737,16 @@
         <v>5</v>
       </c>
       <c r="C392">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D392">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E392">
         <v>2</v>
       </c>
       <c r="G392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -11766,16 +11766,16 @@
         <v>2</v>
       </c>
       <c r="C393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D393">
         <v>3</v>
       </c>
       <c r="E393">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G393">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -11795,16 +11795,16 @@
         <v>4</v>
       </c>
       <c r="C394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E394">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G394">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H394">
         <v>4</v>
@@ -11824,13 +11824,13 @@
         <v>5</v>
       </c>
       <c r="C395">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D395">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E395">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G395">
         <v>4</v>
@@ -11853,16 +11853,16 @@
         <v>3</v>
       </c>
       <c r="C396">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E396">
         <v>2</v>
       </c>
       <c r="G396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H396">
         <v>3</v>
@@ -11885,13 +11885,13 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E397">
         <v>4</v>
       </c>
       <c r="G397">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H397">
         <v>1</v>
@@ -11911,16 +11911,16 @@
         <v>2</v>
       </c>
       <c r="C398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D398">
         <v>2</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G398">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H398">
         <v>4</v>
@@ -11943,10 +11943,10 @@
         <v>3</v>
       </c>
       <c r="D399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E399">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G399">
         <v>4</v>
@@ -11972,13 +11972,13 @@
         <v>3</v>
       </c>
       <c r="D400">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E400">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G400">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H400">
         <v>1</v>
@@ -11998,7 +11998,7 @@
         <v>3</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D401">
         <v>4</v>
@@ -12007,7 +12007,7 @@
         <v>2</v>
       </c>
       <c r="G401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H401">
         <v>4</v>
@@ -12027,16 +12027,16 @@
         <v>3</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D402">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H402">
         <v>2</v>
@@ -12059,7 +12059,7 @@
         <v>3</v>
       </c>
       <c r="D403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E403">
         <v>5</v>
@@ -12085,16 +12085,16 @@
         <v>2</v>
       </c>
       <c r="C404">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E404">
         <v>2</v>
       </c>
       <c r="G404">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H404">
         <v>4</v>
@@ -12114,13 +12114,13 @@
         <v>4</v>
       </c>
       <c r="C405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E405">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>4</v>
@@ -12146,13 +12146,13 @@
         <v>3</v>
       </c>
       <c r="D406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E406">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G406">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H406">
         <v>3</v>
@@ -12178,10 +12178,10 @@
         <v>2</v>
       </c>
       <c r="E407">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G407">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H407">
         <v>4</v>
@@ -12201,16 +12201,16 @@
         <v>4</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H408">
         <v>3</v>
@@ -12230,16 +12230,16 @@
         <v>4</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D409">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E409">
         <v>2</v>
       </c>
       <c r="G409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -12259,13 +12259,13 @@
         <v>1</v>
       </c>
       <c r="C410">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D410">
         <v>4</v>
       </c>
       <c r="E410">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G410">
         <v>2</v>
@@ -12288,16 +12288,16 @@
         <v>2</v>
       </c>
       <c r="C411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E411">
         <v>1</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -12320,13 +12320,13 @@
         <v>3</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E412">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G412">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H412">
         <v>3</v>
@@ -12346,13 +12346,13 @@
         <v>2</v>
       </c>
       <c r="C413">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E413">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G413">
         <v>2</v>
@@ -12375,10 +12375,10 @@
         <v>3</v>
       </c>
       <c r="C414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E414">
         <v>5</v>
@@ -12413,7 +12413,7 @@
         <v>4</v>
       </c>
       <c r="G415">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H415">
         <v>1</v>
@@ -12433,13 +12433,13 @@
         <v>3</v>
       </c>
       <c r="C416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D416">
         <v>2</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G416">
         <v>4</v>
@@ -12491,16 +12491,16 @@
         <v>4</v>
       </c>
       <c r="C418">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D418">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E418">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G418">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H418">
         <v>2</v>
@@ -12523,13 +12523,13 @@
         <v>3</v>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H419">
         <v>3</v>
@@ -12549,13 +12549,13 @@
         <v>2</v>
       </c>
       <c r="C420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D420">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E420">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G420">
         <v>2</v>
@@ -12578,16 +12578,16 @@
         <v>2</v>
       </c>
       <c r="C421">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E421">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G421">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H421">
         <v>4</v>
@@ -12607,13 +12607,13 @@
         <v>4</v>
       </c>
       <c r="C422">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D422">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E422">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G422">
         <v>2</v>
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="C423">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         <v>5</v>
       </c>
       <c r="G423">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H423">
         <v>3</v>
@@ -12668,10 +12668,10 @@
         <v>3</v>
       </c>
       <c r="D424">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G424">
         <v>4</v>
@@ -12694,16 +12694,16 @@
         <v>2</v>
       </c>
       <c r="C425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D425">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H425">
         <v>2</v>
@@ -12723,16 +12723,16 @@
         <v>3</v>
       </c>
       <c r="C426">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -12752,13 +12752,13 @@
         <v>5</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D427">
         <v>4</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -12784,13 +12784,13 @@
         <v>3</v>
       </c>
       <c r="D428">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E428">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G428">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H428">
         <v>2</v>
@@ -12810,13 +12810,13 @@
         <v>2</v>
       </c>
       <c r="C429">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D429">
         <v>3</v>
       </c>
       <c r="E429">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G429">
         <v>1</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="C430">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D430">
         <v>4</v>
@@ -12868,16 +12868,16 @@
         <v>3</v>
       </c>
       <c r="C431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D431">
         <v>2</v>
       </c>
       <c r="E431">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G431">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H431">
         <v>4</v>
@@ -12897,13 +12897,13 @@
         <v>3</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D432">
         <v>1</v>
       </c>
       <c r="E432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -12926,13 +12926,13 @@
         <v>1</v>
       </c>
       <c r="C433">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E433">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G433">
         <v>2</v>
@@ -12958,13 +12958,13 @@
         <v>2</v>
       </c>
       <c r="D434">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E434">
         <v>1</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H434">
         <v>2</v>
@@ -12984,16 +12984,16 @@
         <v>2</v>
       </c>
       <c r="C435">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D435">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E435">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435">
         <v>1</v>
@@ -13013,7 +13013,7 @@
         <v>2</v>
       </c>
       <c r="C436">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436">
         <v>4</v>
@@ -13042,16 +13042,16 @@
         <v>3</v>
       </c>
       <c r="C437">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D437">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E437">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H437">
         <v>4</v>
@@ -13071,16 +13071,16 @@
         <v>1</v>
       </c>
       <c r="C438">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E438">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438">
         <v>1</v>
@@ -13100,16 +13100,16 @@
         <v>3</v>
       </c>
       <c r="C439">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D439">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E439">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G439">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H439">
         <v>2</v>
@@ -13129,13 +13129,13 @@
         <v>1</v>
       </c>
       <c r="C440">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D440">
         <v>2</v>
       </c>
       <c r="E440">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G440">
         <v>4</v>
@@ -13158,16 +13158,16 @@
         <v>3</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D441">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G441">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -13193,10 +13193,10 @@
         <v>4</v>
       </c>
       <c r="E442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G442">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H442">
         <v>4</v>
@@ -13216,16 +13216,16 @@
         <v>2</v>
       </c>
       <c r="C443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D443">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E443">
         <v>1</v>
       </c>
       <c r="G443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H443">
         <v>1</v>
@@ -13248,13 +13248,13 @@
         <v>4</v>
       </c>
       <c r="D444">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G444">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H444">
         <v>4</v>
@@ -13274,16 +13274,16 @@
         <v>2</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D445">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G445">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H445">
         <v>1</v>
@@ -13303,13 +13303,13 @@
         <v>3</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E446">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -13332,13 +13332,13 @@
         <v>3</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D447">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E447">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G447">
         <v>2</v>
@@ -13361,16 +13361,16 @@
         <v>3</v>
       </c>
       <c r="C448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D448">
         <v>3</v>
       </c>
       <c r="E448">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H448">
         <v>3</v>
@@ -13390,13 +13390,13 @@
         <v>4</v>
       </c>
       <c r="C449">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E449">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G449">
         <v>2</v>
@@ -13419,16 +13419,16 @@
         <v>1</v>
       </c>
       <c r="C450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D450">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E450">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G450">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H450">
         <v>3</v>
@@ -13448,16 +13448,16 @@
         <v>5</v>
       </c>
       <c r="C451">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D451">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E451">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H451">
         <v>1</v>
@@ -13477,16 +13477,16 @@
         <v>2</v>
       </c>
       <c r="C452">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D452">
         <v>2</v>
       </c>
       <c r="E452">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H452">
         <v>1</v>
@@ -13509,13 +13509,13 @@
         <v>2</v>
       </c>
       <c r="D453">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G453">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H453">
         <v>3</v>
@@ -13535,16 +13535,16 @@
         <v>4</v>
       </c>
       <c r="C454">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D454">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E454">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G454">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H454">
         <v>1</v>
@@ -13570,10 +13570,10 @@
         <v>3</v>
       </c>
       <c r="E455">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G455">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H455">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>3</v>
       </c>
       <c r="E456">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G456">
         <v>4</v>
@@ -13628,10 +13628,10 @@
         <v>4</v>
       </c>
       <c r="E457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G457">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H457">
         <v>1</v>
@@ -13651,16 +13651,16 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D458">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E458">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458">
         <v>2</v>
@@ -13686,7 +13686,7 @@
         <v>4</v>
       </c>
       <c r="E459">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G459">
         <v>4</v>
@@ -13712,13 +13712,13 @@
         <v>2</v>
       </c>
       <c r="D460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E460">
         <v>5</v>
       </c>
       <c r="G460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460">
         <v>4</v>
@@ -13744,10 +13744,10 @@
         <v>2</v>
       </c>
       <c r="E461">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G461">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H461">
         <v>1</v>
@@ -13767,16 +13767,16 @@
         <v>3</v>
       </c>
       <c r="C462">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E462">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G462">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H462">
         <v>3</v>
@@ -13796,16 +13796,16 @@
         <v>3</v>
       </c>
       <c r="C463">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E463">
         <v>4</v>
       </c>
       <c r="G463">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H463">
         <v>3</v>
@@ -13825,16 +13825,16 @@
         <v>2</v>
       </c>
       <c r="C464">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E464">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G464">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H464">
         <v>2</v>
@@ -13857,13 +13857,13 @@
         <v>2</v>
       </c>
       <c r="D465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H465">
         <v>2</v>
@@ -13883,16 +13883,16 @@
         <v>2</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E466">
         <v>5</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466">
         <v>2</v>
@@ -13912,16 +13912,16 @@
         <v>3</v>
       </c>
       <c r="C467">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D467">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E467">
         <v>5</v>
       </c>
       <c r="G467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H467">
         <v>3</v>
@@ -13941,16 +13941,16 @@
         <v>1</v>
       </c>
       <c r="C468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E468">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H468">
         <v>4</v>
@@ -13970,13 +13970,13 @@
         <v>4</v>
       </c>
       <c r="C469">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D469">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E469">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -13999,10 +13999,10 @@
         <v>3</v>
       </c>
       <c r="C470">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D470">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E470">
         <v>4</v>
@@ -14028,13 +14028,13 @@
         <v>4</v>
       </c>
       <c r="C471">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D471">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E471">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G471">
         <v>4</v>
@@ -14057,16 +14057,16 @@
         <v>4</v>
       </c>
       <c r="C472">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D472">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G472">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H472">
         <v>2</v>
@@ -14086,7 +14086,7 @@
         <v>2</v>
       </c>
       <c r="C473">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D473">
         <v>2</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="G473">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H473">
         <v>2</v>
@@ -14115,16 +14115,16 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D474">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E474">
         <v>2</v>
       </c>
       <c r="G474">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H474">
         <v>4</v>
@@ -14144,13 +14144,13 @@
         <v>4</v>
       </c>
       <c r="C475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D475">
         <v>4</v>
       </c>
       <c r="E475">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G475">
         <v>2</v>
@@ -14173,10 +14173,10 @@
         <v>2</v>
       </c>
       <c r="C476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D476">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E476">
         <v>2</v>
@@ -14205,7 +14205,7 @@
         <v>3</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E477">
         <v>1</v>
@@ -14237,10 +14237,10 @@
         <v>4</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H478">
         <v>2</v>
@@ -14260,16 +14260,16 @@
         <v>5</v>
       </c>
       <c r="C479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D479">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E479">
         <v>2</v>
       </c>
       <c r="G479">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H479">
         <v>3</v>
@@ -14292,13 +14292,13 @@
         <v>4</v>
       </c>
       <c r="D480">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E480">
         <v>5</v>
       </c>
       <c r="G480">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H480">
         <v>1</v>
@@ -14318,16 +14318,16 @@
         <v>4</v>
       </c>
       <c r="C481">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H481">
         <v>1</v>
@@ -14356,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="G482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H482">
         <v>3</v>
@@ -14376,13 +14376,13 @@
         <v>5</v>
       </c>
       <c r="C483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D483">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G483">
         <v>4</v>
@@ -14405,16 +14405,16 @@
         <v>3</v>
       </c>
       <c r="C484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D484">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E484">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G484">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H484">
         <v>4</v>
@@ -14437,13 +14437,13 @@
         <v>3</v>
       </c>
       <c r="D485">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E485">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G485">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H485">
         <v>2</v>
@@ -14466,13 +14466,13 @@
         <v>4</v>
       </c>
       <c r="D486">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E486">
         <v>5</v>
       </c>
       <c r="G486">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H486">
         <v>2</v>
@@ -14492,13 +14492,13 @@
         <v>3</v>
       </c>
       <c r="C487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E487">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G487">
         <v>2</v>
